--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>23.5839757739396</v>
+        <v>23.58397577393961</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>23.7535258781888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23.33579854209153</v>
+        <v>23.33579854209152</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>23.90166356341243</v>
@@ -684,13 +684,13 @@
         <v>23.10293918865684</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>22.87954442720145</v>
+        <v>22.87954442720146</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>23.22442521555721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23.00546254457379</v>
+        <v>23.00546254457378</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>23.52564519234114</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>23.364027102826</v>
+        <v>23.36034091910835</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>23.43089087502943</v>
+        <v>23.41211572616148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23.01007481586586</v>
+        <v>22.98956641671099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23.28766403548232</v>
+        <v>23.24927562340862</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>21.83060076463061</v>
+        <v>21.83874471664835</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>22.29541406169649</v>
+        <v>22.29085499523442</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>22.3090012799688</v>
+        <v>22.2929111521395</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>22.5628761048988</v>
+        <v>22.51303854164576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>22.6969608191365</v>
+        <v>22.69428039671074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22.97735364760985</v>
+        <v>22.98773160670025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22.7488537728874</v>
+        <v>22.7369469705605</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>23.0947247557592</v>
+        <v>23.13668467952912</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.84087783265377</v>
+        <v>23.81241901819645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.11205654704297</v>
+        <v>24.07104043018954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.73616318096513</v>
+        <v>23.68857381439236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.51536072838916</v>
+        <v>24.62084069454612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>22.46526018978093</v>
+        <v>22.47968149197804</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.05771309409186</v>
+        <v>23.01604031227907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.10580948920716</v>
+        <v>23.04418420724079</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.79907845432027</v>
+        <v>23.70207848966238</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.09082748404725</v>
+        <v>23.07253694394834</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23.47318108764872</v>
+        <v>23.46815710758102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23.28148786772589</v>
+        <v>23.26415661680437</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>23.98892011680881</v>
+        <v>23.97997692500097</v>
       </c>
     </row>
     <row r="7">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>25.08380775061397</v>
+        <v>25.08380775061398</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>25.68253117287583</v>
+        <v>25.68253117287584</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>25.15080264373092</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>24.84740804983622</v>
+        <v>24.86034034481906</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>25.42421444839729</v>
+        <v>25.41658927282377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24.81769276963325</v>
+        <v>24.88440999897724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25.16498687161759</v>
+        <v>25.1708798067806</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>23.27288721221199</v>
+        <v>23.26812100121041</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>24.19093787267214</v>
+        <v>24.24152279861393</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>24.17471370949069</v>
+        <v>24.15755558652553</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>24.32163329999358</v>
+        <v>24.33131683641064</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>24.18941906698248</v>
+        <v>24.20901022530543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24.93470612583469</v>
+        <v>24.94506386040823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24.61107178435895</v>
+        <v>24.61726079575075</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>24.87032691278526</v>
+        <v>24.88587530800068</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.35111914921623</v>
+        <v>25.37655192950374</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>25.95682178484151</v>
+        <v>25.95493538320157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25.4819400869009</v>
+        <v>25.51978788116875</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26.0986615492631</v>
+        <v>26.110757705997</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>23.95943598269902</v>
+        <v>23.9582194312651</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.98359822758537</v>
+        <v>24.98160500502036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>24.88410293713958</v>
+        <v>24.89058293797015</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>25.17063039926979</v>
+        <v>25.1758983063271</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>24.63288518185987</v>
+        <v>24.63500459426712</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25.40878121623135</v>
+        <v>25.44742130203657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25.08725399848906</v>
+        <v>25.08031472760449</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>25.5053136834693</v>
+        <v>25.53173388127099</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         <v>26.35276864551841</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>27.09781221794028</v>
+        <v>27.09781221794027</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>26.40956032856226</v>
@@ -947,19 +947,19 @@
         <v>24.69899029050603</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>25.7033336733734</v>
+        <v>25.70333367337339</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>25.20471255457315</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>25.27845121564748</v>
+        <v>25.27845121564747</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>25.4941119725822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26.38865808157368</v>
+        <v>26.38865808157367</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>25.81484066376374</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>26.09552403965382</v>
+        <v>26.09805955060679</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.80580368582137</v>
+        <v>26.80503397324105</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.11290957065609</v>
+        <v>26.10473693020271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.10836386787631</v>
+        <v>26.04605135400685</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>24.38862619666632</v>
+        <v>24.380867183989</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.35397039105436</v>
+        <v>25.34352078122599</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>24.85470591007913</v>
+        <v>24.85009955696584</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>24.97298357272394</v>
+        <v>24.96083700880262</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.28134328554605</v>
+        <v>25.2848132250958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26.15805177251809</v>
+        <v>26.14987488460806</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25.56389505568642</v>
+        <v>25.59951561448922</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>25.61181276309065</v>
+        <v>25.62188861262073</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.62309575340955</v>
+        <v>26.62674697028039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.42670877979539</v>
+        <v>27.39810236001482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.73586319084632</v>
+        <v>26.72016668986556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.80114601821916</v>
+        <v>26.76015796809145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>25.07657600848846</v>
+        <v>25.06248934527557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.08795106144845</v>
+        <v>26.09078987110257</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>25.60009710326796</v>
+        <v>25.62563079596094</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>25.62636907545572</v>
+        <v>25.62518321679359</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.71795396206038</v>
+        <v>25.73931090904801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26.63098923723893</v>
+        <v>26.65106433846108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.07873353803236</v>
+        <v>26.10661705666729</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>26.08205075846851</v>
+        <v>26.08685973323977</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>26.82830299628107</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>26.71118153363311</v>
+        <v>26.71118153363312</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>26.51882254155993</v>
+        <v>26.49963992609944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>27.18440490978436</v>
+        <v>27.12133882105108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27.03844797499394</v>
+        <v>27.0088561131189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27.06467599354654</v>
+        <v>27.07040155616044</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>25.57793682377685</v>
+        <v>25.5546124541651</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.23390189940312</v>
+        <v>26.20745029333237</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.88650135401143</v>
+        <v>25.86602336907361</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.80964206150558</v>
+        <v>25.75038111290095</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>26.12588471972156</v>
+        <v>26.15797659693685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26.80817693244126</v>
+        <v>26.80799899962079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26.56244806790229</v>
+        <v>26.57358412929524</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>26.48754515082048</v>
+        <v>26.49662059990708</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>27.15787684601287</v>
+        <v>27.15835088556425</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.80768483215324</v>
+        <v>27.81609666385989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27.70281155945158</v>
+        <v>27.73183366045937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27.76109240043495</v>
+        <v>27.74568034192679</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>26.34326611190359</v>
+        <v>26.33800828458823</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.98426637992421</v>
+        <v>27.01329269251868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.66551454224084</v>
+        <v>26.6696205924619</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.34751467640891</v>
+        <v>26.33576003365489</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>26.65556156767479</v>
+        <v>26.6844627006918</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27.31015612827896</v>
+        <v>27.30499461625219</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27.10306498862294</v>
+        <v>27.1074406681535</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.93416972746176</v>
+        <v>26.95047428016423</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>27.31759531086708</v>
+        <v>27.30429868388875</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>27.27564127440267</v>
+        <v>27.30876270549823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27.55295556990023</v>
+        <v>27.51187234022638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27.43113483149943</v>
+        <v>27.47222897557821</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>26.88006910448293</v>
+        <v>26.83339944721979</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.81339965277082</v>
+        <v>27.77866639665821</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>27.36239482664905</v>
+        <v>27.33461186705006</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>26.54300089471858</v>
+        <v>26.56244963367988</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>27.16509474790199</v>
+        <v>27.21204040466373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27.64047194739604</v>
+        <v>27.64724645116342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27.52775018417002</v>
+        <v>27.5375113382527</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>27.08203743021454</v>
+        <v>27.09387820638426</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.074544604256</v>
+        <v>28.09735942143562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.09391833567946</v>
+        <v>28.12962072132923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28.33947918026228</v>
+        <v>28.34727339321926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28.11849149843791</v>
+        <v>28.13219165483311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>27.67438679901286</v>
+        <v>27.69156672199894</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.84654208128919</v>
+        <v>28.80748289998658</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>28.35954271411435</v>
+        <v>28.30862809582062</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.15860714712324</v>
+        <v>27.16209687289874</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>27.75343580809428</v>
+        <v>27.7694354768707</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28.33994396519988</v>
+        <v>28.2958197114877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28.16676480617877</v>
+        <v>28.17149710369537</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>27.55000457671331</v>
+        <v>27.54763826567868</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>27.21045102553574</v>
+        <v>27.21045102553573</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>28.23561961955587</v>
@@ -1349,16 +1349,16 @@
         <v>28.23695834802478</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27.77303173610765</v>
+        <v>27.77303173610764</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>28.53375825642679</v>
+        <v>28.53375825642678</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>29.25175795561021</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>28.01386840137086</v>
+        <v>28.01386840137085</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27.5177938336935</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>26.8138412670011</v>
+        <v>26.79255087321889</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>27.80628517253111</v>
+        <v>27.79548782693385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27.81298160954295</v>
+        <v>27.80428085414481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27.4513805366819</v>
+        <v>27.42098136520768</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>28.11095072482355</v>
+        <v>28.05454665311841</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.72191695336652</v>
+        <v>28.7339667773317</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>27.49931667738889</v>
+        <v>27.47685133941441</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>27.20561524150683</v>
+        <v>27.22920777176807</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>27.60065434791826</v>
+        <v>27.64263738356427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28.40095152429778</v>
+        <v>28.43929559095514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27.74112880632847</v>
+        <v>27.76188979194506</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>27.39397933141856</v>
+        <v>27.40573514464318</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.57405189416947</v>
+        <v>27.58277728080858</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>28.70003001451979</v>
+        <v>28.70415515707472</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28.70753501840997</v>
+        <v>28.73231345992527</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28.17538733930927</v>
+        <v>28.11535056852366</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>29.00146853840341</v>
+        <v>29.01094954131382</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>29.91566205680047</v>
+        <v>29.82341331818138</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>28.52952654894325</v>
+        <v>28.48945235946046</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>27.84263927038624</v>
+        <v>27.85025521449222</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>28.24332242484318</v>
+        <v>28.2561035573966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29.1320556808178</v>
+        <v>29.17083521285713</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28.4758791903809</v>
+        <v>28.46718852995407</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>27.89254176674378</v>
+        <v>27.8701986282717</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1491,7 @@
         <v>28.35593276371338</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.72069046856515</v>
+        <v>28.72069046856514</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>28.52503647983654</v>
@@ -1503,7 +1503,7 @@
         <v>27.94609372957423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28.33336724726994</v>
+        <v>28.33336724726995</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>28.13036534428499</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>26.83249470890338</v>
+        <v>26.82689000447391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>27.33961735734645</v>
+        <v>27.32030536738939</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27.11759296944855</v>
+        <v>27.13129704893744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26.57930703867717</v>
+        <v>26.57763933048846</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>27.85352516546663</v>
+        <v>27.86530547995473</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.21150988438893</v>
+        <v>28.24161840584529</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>27.92563129995332</v>
+        <v>27.92623373989237</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>27.01487811832306</v>
+        <v>27.04491290561419</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>27.59628246362942</v>
+        <v>27.60557802033311</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27.95624887115432</v>
+        <v>27.9647809273058</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27.72894517029578</v>
+        <v>27.71985451220615</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>26.94835874893595</v>
+        <v>26.95152572211808</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>27.80892892143994</v>
+        <v>27.7697268128348</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>28.31993895067176</v>
+        <v>28.3027418837574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.07145221200085</v>
+        <v>28.04577793931456</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.25303579858215</v>
+        <v>27.2310008658742</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>28.82356097777253</v>
+        <v>28.86647564599455</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.32913508562664</v>
+        <v>29.28754703028162</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>29.20858916399277</v>
+        <v>29.17718729027887</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>27.61786819498162</v>
+        <v>27.60682532944539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>28.30489179473505</v>
+        <v>28.30804961602287</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28.72087182529317</v>
+        <v>28.71064647000019</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28.5682770336559</v>
+        <v>28.55997491244019</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>27.38360770577573</v>
+        <v>27.36964349202847</v>
       </c>
     </row>
     <row r="25">
@@ -1627,7 +1627,7 @@
         <v>25.37284301998116</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>26.26177045228867</v>
+        <v>26.26177045228866</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>25.98946834131781</v>
@@ -1636,13 +1636,13 @@
         <v>25.89950629550074</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>25.69216337234278</v>
+        <v>25.69216337234279</v>
       </c>
       <c r="L25" s="5" t="n">
         <v>26.45728594311132</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26.22812326067492</v>
+        <v>26.22812326067493</v>
       </c>
       <c r="N25" s="5" t="n">
         <v>26.2622272909227</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>25.8825628801429</v>
+        <v>25.89392568810148</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>26.52511569875035</v>
+        <v>26.52598697177431</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26.32688246840794</v>
+        <v>26.31836488622022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26.46663701982729</v>
+        <v>26.46961789433348</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>25.19688129933321</v>
+        <v>25.21477379017806</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>26.08136035953128</v>
+        <v>26.07436931625146</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>25.81697739790176</v>
+        <v>25.82539785615779</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>25.75635069690147</v>
+        <v>25.75323041960964</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>25.58523023227892</v>
+        <v>25.58957797962626</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26.33921336298155</v>
+        <v>26.33641201572372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26.10760655152312</v>
+        <v>26.09964259045521</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>26.14483113447151</v>
+        <v>26.15568172178001</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>26.14279962000755</v>
+        <v>26.15624490840193</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>26.8085077059368</v>
+        <v>26.80853582761428</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26.61857882951333</v>
+        <v>26.62693381875458</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26.79790316280507</v>
+        <v>26.80008008227193</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>25.53336641246815</v>
+        <v>25.53234440215237</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>26.43571543057899</v>
+        <v>26.44134253341147</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>26.18357958245808</v>
+        <v>26.18875251739891</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>26.0412450431986</v>
+        <v>26.04350734853763</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>25.80364230237548</v>
+        <v>25.80132165647278</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26.56891639537256</v>
+        <v>26.56295305002418</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26.34594453034822</v>
+        <v>26.34290775840676</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>26.36859782481284</v>
+        <v>26.37749246007916</v>
       </c>
     </row>
     <row r="28">
